--- a/Requirements/Product Backlog/Product Backlog.xlsx
+++ b/Requirements/Product Backlog/Product Backlog.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4E087894-2AE2-41B8-91AF-79477D25D9C6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A271022-4B5A-44B1-9046-988B7A55088D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3345" xr2:uid="{BE25E7B5-23B0-4D7D-8D78-B63294565AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,9 +60,6 @@
     <t>As a Product Owner, I want front end validations on username and password fields of the login page</t>
   </si>
   <si>
-    <t>As a Product Owner, I want that no unauthorise user can enter the application so that only valid user enters the application</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>As a Product Owner, I want the format of pdf to be generated from the system to be specified so that it can be generated from the system</t>
   </si>
   <si>
-    <t>As a Product Owner, I want a generate report button so that when I have uploaded the photographs and I click on the generate button, the report is generated and downloaded</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>As a Product Owner, I want static as well as user selected values for questions in the FAQ section so that I can modify the questions as per my needs</t>
   </si>
   <si>
-    <t>As a Product Owner, I want a search document functionality so that when I enter name of training partner and its batch ID and click on submit button, I can view a zip file which contains all the files uploaded by the training partner for that batch id</t>
-  </si>
-  <si>
     <t>As a Product Owner, I want when I click on the zip icon of the result, the file should be downloaded so that, I can view the files uploaded by the training partner</t>
   </si>
   <si>
@@ -427,6 +418,15 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a show password icon along the password field so that, when I click on it the password can be seen</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a generate report button so that when I have uploaded the photographs and I click on the generate button, the report is generated and downloaded in zip file</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a search document functionality so that when I enter name of training partner and its batch ID or SCGJ Batch Number and click on submit button, I can view a zip file which contains all the files uploaded by the training partner for that batch id</t>
   </si>
 </sst>
 </file>
@@ -605,14 +605,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,41 +626,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC5FB69-8FB6-4AB0-A622-325661F11E81}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,102 +995,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
       <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>8</v>
@@ -1112,11 +1112,11 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>9</v>
@@ -1138,11 +1138,11 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>10</v>
@@ -1164,14 +1164,14 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1190,204 +1190,204 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="20"/>
+      <c r="B9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1406,40 +1406,40 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1458,14 +1458,14 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1484,14 +1484,14 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1510,14 +1510,14 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1536,14 +1536,14 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -1562,14 +1562,14 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1588,14 +1588,14 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1614,14 +1614,14 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1640,18 +1640,18 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="16" t="s">
-        <v>21</v>
+      <c r="B25" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1670,14 +1670,14 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1696,14 +1696,14 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -1722,40 +1722,40 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1774,14 +1774,14 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -1800,14 +1800,14 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -1826,14 +1826,14 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -1852,18 +1852,18 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="24"/>
+      <c r="B33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="21"/>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -1882,14 +1882,14 @@
     </row>
     <row r="34" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -1908,40 +1908,40 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -1960,72 +1960,72 @@
     </row>
     <row r="37" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -2044,14 +2044,14 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -2070,122 +2070,122 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="26"/>
+      <c r="B45" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="17"/>
       <c r="E45" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2204,14 +2204,14 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2230,14 +2230,14 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -2256,26 +2256,26 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -2283,17 +2283,17 @@
     <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="27"/>
+        <v>127</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="10"/>
       <c r="E49" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -2313,25 +2313,25 @@
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -2339,25 +2339,25 @@
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -2365,17 +2365,17 @@
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="21"/>
+        <v>128</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="13"/>
       <c r="E52" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -2395,13 +2395,13 @@
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -2421,13 +2421,13 @@
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -2447,13 +2447,13 @@
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -2473,13 +2473,13 @@
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -2499,13 +2499,13 @@
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -2525,25 +2525,25 @@
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3" t="e">
@@ -2583,41 +2583,33 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="C4:D8"/>
     <mergeCell ref="A1:T2"/>
     <mergeCell ref="F3:Q3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F4:Q4"/>
     <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="C4:D8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="F13:Q13"/>
-    <mergeCell ref="F14:Q14"/>
+    <mergeCell ref="A4:A38"/>
     <mergeCell ref="F10:Q10"/>
     <mergeCell ref="F11:Q11"/>
     <mergeCell ref="F12:Q12"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="F21:Q21"/>
-    <mergeCell ref="F33:Q33"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="F32:Q32"/>
+    <mergeCell ref="F26:Q26"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="F24:Q24"/>
+    <mergeCell ref="F13:Q13"/>
+    <mergeCell ref="F14:Q14"/>
     <mergeCell ref="F25:Q25"/>
     <mergeCell ref="F27:Q27"/>
     <mergeCell ref="F28:Q28"/>
     <mergeCell ref="F29:Q29"/>
     <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="F32:Q32"/>
-    <mergeCell ref="F26:Q26"/>
-    <mergeCell ref="F31:Q31"/>
-    <mergeCell ref="F24:Q24"/>
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="F35:Q35"/>
-    <mergeCell ref="F36:Q36"/>
-    <mergeCell ref="F37:Q37"/>
-    <mergeCell ref="F38:Q38"/>
+    <mergeCell ref="C33:D38"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C9:D14"/>
@@ -2625,14 +2617,6 @@
     <mergeCell ref="C25:D32"/>
     <mergeCell ref="B15:B24"/>
     <mergeCell ref="C15:D24"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F50:Q50"/>
-    <mergeCell ref="F51:Q51"/>
-    <mergeCell ref="F15:Q15"/>
-    <mergeCell ref="F17:Q17"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="F23:Q23"/>
-    <mergeCell ref="F22:Q22"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:D44"/>
     <mergeCell ref="F39:Q39"/>
@@ -2640,12 +2624,27 @@
     <mergeCell ref="F41:Q41"/>
     <mergeCell ref="F44:Q44"/>
     <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="C33:D38"/>
-    <mergeCell ref="F46:Q46"/>
-    <mergeCell ref="F47:Q47"/>
+    <mergeCell ref="F51:Q51"/>
+    <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="F17:Q17"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="F22:Q22"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="F36:Q36"/>
+    <mergeCell ref="F37:Q37"/>
+    <mergeCell ref="F38:Q38"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="F21:Q21"/>
+    <mergeCell ref="F33:Q33"/>
     <mergeCell ref="F48:Q48"/>
     <mergeCell ref="F49:Q49"/>
     <mergeCell ref="C45:D48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F50:Q50"/>
     <mergeCell ref="A39:A58"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B58"/>
@@ -2658,9 +2657,10 @@
     <mergeCell ref="F57:Q57"/>
     <mergeCell ref="C52:D58"/>
     <mergeCell ref="F58:Q58"/>
-    <mergeCell ref="A4:A38"/>
     <mergeCell ref="F45:Q45"/>
     <mergeCell ref="F43:Q43"/>
+    <mergeCell ref="F46:Q46"/>
+    <mergeCell ref="F47:Q47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Requirements/Product Backlog/Product Backlog.xlsx
+++ b/Requirements/Product Backlog/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A271022-4B5A-44B1-9046-988B7A55088D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECF6384C-35D0-4280-98E3-634C660E514B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3345" xr2:uid="{BE25E7B5-23B0-4D7D-8D78-B63294565AEE}"/>
   </bookViews>
@@ -599,44 +599,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -650,13 +638,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -975,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC5FB69-8FB6-4AB0-A622-325661F11E81}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F50" sqref="F50:Q50"/>
     </sheetView>
   </sheetViews>
@@ -995,50 +995,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1047,27 +1047,27 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
       <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1079,1471 +1079,1471 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="13"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3" t="e">
@@ -2583,6 +2583,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A39:A58"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C49:D51"/>
+    <mergeCell ref="F52:Q52"/>
+    <mergeCell ref="F53:Q53"/>
+    <mergeCell ref="F54:Q54"/>
+    <mergeCell ref="F55:Q55"/>
+    <mergeCell ref="F56:Q56"/>
+    <mergeCell ref="F57:Q57"/>
+    <mergeCell ref="C52:D58"/>
+    <mergeCell ref="F58:Q58"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="F43:Q43"/>
+    <mergeCell ref="F46:Q46"/>
+    <mergeCell ref="F47:Q47"/>
+    <mergeCell ref="F48:Q48"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="C45:D48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F50:Q50"/>
+    <mergeCell ref="F51:Q51"/>
+    <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="F17:Q17"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="F22:Q22"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="F36:Q36"/>
+    <mergeCell ref="F37:Q37"/>
+    <mergeCell ref="F38:Q38"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="F21:Q21"/>
+    <mergeCell ref="F33:Q33"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:D44"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="C33:D38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:D14"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:D32"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:D24"/>
+    <mergeCell ref="F26:Q26"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="F24:Q24"/>
+    <mergeCell ref="F13:Q13"/>
+    <mergeCell ref="F14:Q14"/>
+    <mergeCell ref="F25:Q25"/>
+    <mergeCell ref="F27:Q27"/>
+    <mergeCell ref="F28:Q28"/>
+    <mergeCell ref="F29:Q29"/>
+    <mergeCell ref="F30:Q30"/>
     <mergeCell ref="F6:Q6"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="C4:D8"/>
@@ -2599,68 +2661,6 @@
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="F9:Q9"/>
     <mergeCell ref="F32:Q32"/>
-    <mergeCell ref="F26:Q26"/>
-    <mergeCell ref="F31:Q31"/>
-    <mergeCell ref="F24:Q24"/>
-    <mergeCell ref="F13:Q13"/>
-    <mergeCell ref="F14:Q14"/>
-    <mergeCell ref="F25:Q25"/>
-    <mergeCell ref="F27:Q27"/>
-    <mergeCell ref="F28:Q28"/>
-    <mergeCell ref="F29:Q29"/>
-    <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="C33:D38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:D14"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:D32"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:D24"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:D44"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="F51:Q51"/>
-    <mergeCell ref="F15:Q15"/>
-    <mergeCell ref="F17:Q17"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="F23:Q23"/>
-    <mergeCell ref="F22:Q22"/>
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="F35:Q35"/>
-    <mergeCell ref="F36:Q36"/>
-    <mergeCell ref="F37:Q37"/>
-    <mergeCell ref="F38:Q38"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="F21:Q21"/>
-    <mergeCell ref="F33:Q33"/>
-    <mergeCell ref="F48:Q48"/>
-    <mergeCell ref="F49:Q49"/>
-    <mergeCell ref="C45:D48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F50:Q50"/>
-    <mergeCell ref="A39:A58"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C49:D51"/>
-    <mergeCell ref="F52:Q52"/>
-    <mergeCell ref="F53:Q53"/>
-    <mergeCell ref="F54:Q54"/>
-    <mergeCell ref="F55:Q55"/>
-    <mergeCell ref="F56:Q56"/>
-    <mergeCell ref="F57:Q57"/>
-    <mergeCell ref="C52:D58"/>
-    <mergeCell ref="F58:Q58"/>
-    <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="F46:Q46"/>
-    <mergeCell ref="F47:Q47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Requirements/Product Backlog/Product Backlog.xlsx
+++ b/Requirements/Product Backlog/Product Backlog.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECF6384C-35D0-4280-98E3-634C660E514B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7C3A0B4-4202-4F13-B0B4-6215C9FE04FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3345" xr2:uid="{BE25E7B5-23B0-4D7D-8D78-B63294565AEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3345" firstSheet="1" activeTab="1" xr2:uid="{BE25E7B5-23B0-4D7D-8D78-B63294565AEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Track 1 - NSKFDC - Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Track 2 - NSKFDC" sheetId="3" r:id="rId3"/>
+    <sheet name="Track 3 - NSKFDC" sheetId="4" r:id="rId4"/>
+    <sheet name="Track 4 - NSKFDC" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Track 1 - NSKFDC - Login'!$A$1:$B$28</definedName>
+  </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="170">
   <si>
     <t>NSKFDC Product Backlog</t>
   </si>
@@ -427,6 +434,114 @@
   </si>
   <si>
     <t>As a Product Owner, I want a search document functionality so that when I enter name of training partner and its batch ID or SCGJ Batch Number and click on submit button, I can view a zip file which contains all the files uploaded by the training partner for that batch id</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Ayush Jain</t>
+  </si>
+  <si>
+    <t>Bhawana</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT REQUIRED </t>
+  </si>
+  <si>
+    <t>Sagun</t>
+  </si>
+  <si>
+    <t>As a product owner I want a generate batch button so that when I click on it, a new batch with batch Id(auto generated) is created in the database and the excel sheet for that batch with required information is downloaded (FE+BE)</t>
+  </si>
+  <si>
+    <t>Pranjal Mani</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Shivangi</t>
+  </si>
+  <si>
+    <t>Mannu</t>
+  </si>
+  <si>
+    <t>Samridhi</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a Dashboard page of the application so that, All the important statistics are available on the dashboard (BE of stats block)</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a the designs of the Dashboard to be the same as that of GD, so that it looks the same as GD (ALL FE WORK)</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a batch Id field  and SCGJ batch ID (for final batch report) to be populated when I select the document type so that I can enter the batch id against which the document is to be uploaded</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a search document functionality so that when I enter the batch id and click on search button the result for the given batch id appears in the table (FE +BE)</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want the look and feel of the application to be the same as agreed in the GD (FE of Upload Doc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarthak </t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Shivanshu</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want the text fields under update existing batch to show information that has already been updated by the user, so that he does not have to enter the information again</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a dropdown for batch id and a text field to enterthe SCGJ batch number which contains a list of batch id against the specific training partner so that, the user can choose the batch id for which the report has to be generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Product Owner, I want a generate report button so that when I have uploaded the photographs and I click on the generate button, the report is generated and downloaded </t>
+  </si>
+  <si>
+    <t>Generate Batch Report</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want the look and feel of the functionality to be the same as agreed in the GD</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want to generate the .pdf format of occupation certificate when I select the occupation certificate option from dropdown and enter the batch ID for which the report has to be generated</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want the .pdf format of attendance sheet to be generated when I select the the attendance sheet option from the dropdown and enter the batch ID for which the report has to be generated</t>
+  </si>
+  <si>
+    <t>Asa Product Owner, I want the .pdf format of minutes of selection committee meeting to be generated when  I select the respective option from the dropdown and enter the batch ID</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want the .xl format of the NSKFDC sheet to be generated when I enter the batch id for which I want to generate the excel sheet for the nskfdc platform</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want the .xl format of the SDMS sheet to be generated when I enter the batch id for which I want to generate the excel sheet for the nskfdc platform</t>
+  </si>
+  <si>
+    <t>As a product owner, I want the batch ID dropdown to be pre-populated with the batch ID that are there for the specific training partner so that, I can select the batch Id against which I want to upload the document</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a bar chart representing the top 5 states with maximum training centers so that, I can get to know which states have the maximum training centers</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a bar chart representing the total candidates trainined in each month for the last 6 months , so that I can get the information of the number of candidates trained in each month</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a map of India dynamically representing the number of training partners in each state so that when I hover my mouse on any states then the number of training partners can be displayed</t>
+  </si>
+  <si>
+    <t>Out of scope</t>
   </si>
 </sst>
 </file>
@@ -479,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,8 +667,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -576,11 +715,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -599,13 +892,84 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,50 +978,203 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC5FB69-8FB6-4AB0-A622-325661F11E81}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:Q50"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,50 +1512,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1047,27 +1564,27 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
       <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1079,1471 +1596,1471 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3" t="e">
@@ -2583,6 +3100,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="C4:D8"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A38"/>
+    <mergeCell ref="F10:Q10"/>
+    <mergeCell ref="F11:Q11"/>
+    <mergeCell ref="F12:Q12"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="F32:Q32"/>
+    <mergeCell ref="F26:Q26"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="F24:Q24"/>
+    <mergeCell ref="F13:Q13"/>
+    <mergeCell ref="F14:Q14"/>
+    <mergeCell ref="F25:Q25"/>
+    <mergeCell ref="F27:Q27"/>
+    <mergeCell ref="F28:Q28"/>
+    <mergeCell ref="F29:Q29"/>
+    <mergeCell ref="F30:Q30"/>
+    <mergeCell ref="C33:D38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:D14"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:D32"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:D24"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:D44"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F51:Q51"/>
+    <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="F17:Q17"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="F22:Q22"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="F36:Q36"/>
+    <mergeCell ref="F37:Q37"/>
+    <mergeCell ref="F38:Q38"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="F21:Q21"/>
+    <mergeCell ref="F33:Q33"/>
+    <mergeCell ref="F48:Q48"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="C45:D48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F50:Q50"/>
     <mergeCell ref="A39:A58"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B58"/>
@@ -2599,68 +3178,1694 @@
     <mergeCell ref="F43:Q43"/>
     <mergeCell ref="F46:Q46"/>
     <mergeCell ref="F47:Q47"/>
-    <mergeCell ref="F48:Q48"/>
-    <mergeCell ref="F49:Q49"/>
-    <mergeCell ref="C45:D48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F50:Q50"/>
-    <mergeCell ref="F51:Q51"/>
-    <mergeCell ref="F15:Q15"/>
-    <mergeCell ref="F17:Q17"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="F23:Q23"/>
-    <mergeCell ref="F22:Q22"/>
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="F35:Q35"/>
-    <mergeCell ref="F36:Q36"/>
-    <mergeCell ref="F37:Q37"/>
-    <mergeCell ref="F38:Q38"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="F21:Q21"/>
-    <mergeCell ref="F33:Q33"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:D44"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="C33:D38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:D14"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:D32"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:D24"/>
-    <mergeCell ref="F26:Q26"/>
-    <mergeCell ref="F31:Q31"/>
-    <mergeCell ref="F24:Q24"/>
-    <mergeCell ref="F13:Q13"/>
-    <mergeCell ref="F14:Q14"/>
-    <mergeCell ref="F25:Q25"/>
-    <mergeCell ref="F27:Q27"/>
-    <mergeCell ref="F28:Q28"/>
-    <mergeCell ref="F29:Q29"/>
-    <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="C4:D8"/>
-    <mergeCell ref="A1:T2"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A38"/>
-    <mergeCell ref="F10:Q10"/>
-    <mergeCell ref="F11:Q11"/>
-    <mergeCell ref="F12:Q12"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="F32:Q32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7699A98-EF12-42B5-AD82-8AE97F790406}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B28" xr:uid="{7298A2E2-C4DC-445E-BAC8-690BCC0D5A1A}">
+    <filterColumn colId="0" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="23">
+    <mergeCell ref="P2:P6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="P10:P16"/>
+    <mergeCell ref="A10:B16"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D79E7D-7B71-4776-A081-9858417607BA}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="A4:B13"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430577E4-42E2-4CE8-BBC7-603C94F724CF}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A10:B15"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="A4:B9"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52A573-4579-4033-9F65-BD990EC55F40}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:B18"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="A4:B9"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Requirements/Product Backlog/Product Backlog.xlsx
+++ b/Requirements/Product Backlog/Product Backlog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NSKFDC-App.git\trunk\Requirements\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7C3A0B4-4202-4F13-B0B4-6215C9FE04FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3345" firstSheet="1" activeTab="1" xr2:uid="{BE25E7B5-23B0-4D7D-8D78-B63294565AEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="3348" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,8 +17,10 @@
     <sheet name="Track 2 - NSKFDC" sheetId="3" r:id="rId3"/>
     <sheet name="Track 3 - NSKFDC" sheetId="4" r:id="rId4"/>
     <sheet name="Track 4 - NSKFDC" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Work" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Remaining Work'!$C$1:$D$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Track 1 - NSKFDC - Login'!$A$1:$B$28</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="199">
   <si>
     <t>NSKFDC Product Backlog</t>
   </si>
@@ -542,13 +543,100 @@
   </si>
   <si>
     <t>Out of scope</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Fixing </t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>As a Product Owner, I want a type check on the file to be uploaded so that the file is only of xlsx type</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Out of Scope</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>NSKFDC - 7</t>
+  </si>
+  <si>
+    <t>Work Left</t>
+  </si>
+  <si>
+    <t>NSKFDC - 8</t>
+  </si>
+  <si>
+    <t>NSKFDC - 17</t>
+  </si>
+  <si>
+    <t>NSKFDC - 24</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Bug Fixing - Financial Year</t>
+  </si>
+  <si>
+    <t>NSKFDC - 19</t>
+  </si>
+  <si>
+    <t>TO Do</t>
+  </si>
+  <si>
+    <t>NSKFDC - 28</t>
+  </si>
+  <si>
+    <t>NSKFDC - 42</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Prateek</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Change Request</t>
+  </si>
+  <si>
+    <t>Number of Stories - 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Requests - 2 </t>
+  </si>
+  <si>
+    <t>Functionality to change the password for the existing training partner   - Pooja</t>
+  </si>
+  <si>
+    <t>Light box to be implemented on Admin Dashboard - When user clicks on upcoming assessments then details of the batches should be shown - Pooja</t>
+  </si>
+  <si>
+    <t>Maintain History for Master Sheet Import - Pooja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +681,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,8 +787,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -869,11 +983,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -921,108 +1226,117 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,6 +1370,24 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,12 +1433,12 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1116,27 +1448,33 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1146,36 +1484,54 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,102 +1845,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC5FB69-8FB6-4AB0-A622-325661F11E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1595,11 +1951,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -1627,9 +1983,9 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="29"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
@@ -1653,9 +2009,9 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="29"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
@@ -1679,9 +2035,9 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="7" t="s">
@@ -1705,201 +2061,201 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="29"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
@@ -1921,37 +2277,37 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="7" t="s">
         <v>38</v>
       </c>
@@ -1973,11 +2329,11 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="7" t="s">
         <v>39</v>
       </c>
@@ -1999,11 +2355,11 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
@@ -2025,11 +2381,11 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
@@ -2051,11 +2407,11 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
@@ -2077,11 +2433,11 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="7" t="s">
         <v>43</v>
       </c>
@@ -2103,11 +2459,11 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2129,11 +2485,11 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="7" t="s">
         <v>45</v>
       </c>
@@ -2155,15 +2511,15 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="29" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
@@ -2185,11 +2541,11 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="7" t="s">
         <v>47</v>
       </c>
@@ -2211,11 +2567,11 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
@@ -2237,37 +2593,37 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="7" t="s">
         <v>50</v>
       </c>
@@ -2289,11 +2645,11 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="7" t="s">
         <v>51</v>
       </c>
@@ -2315,11 +2671,11 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="7" t="s">
         <v>52</v>
       </c>
@@ -2341,11 +2697,11 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="7" t="s">
         <v>53</v>
       </c>
@@ -2367,15 +2723,15 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="29" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="7" t="s">
         <v>54</v>
       </c>
@@ -2397,11 +2753,11 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+    <row r="34" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="7" t="s">
         <v>55</v>
       </c>
@@ -2423,37 +2779,37 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="7" t="s">
         <v>82</v>
       </c>
@@ -2475,69 +2831,69 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+    <row r="37" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="7" t="s">
         <v>85</v>
       </c>
@@ -2559,11 +2915,11 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="7" t="s">
         <v>86</v>
       </c>
@@ -2585,119 +2941,119 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="29" t="s">
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+      <c r="B45" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="28"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="7" t="s">
         <v>98</v>
       </c>
@@ -2719,11 +3075,11 @@
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="7" t="s">
         <v>99</v>
       </c>
@@ -2745,11 +3101,11 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="7" t="s">
         <v>100</v>
       </c>
@@ -2771,41 +3127,41 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20" t="s">
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="21"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="7" t="s">
         <v>117</v>
       </c>
@@ -2827,61 +3183,61 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+      <c r="B52" s="38" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="24" t="s">
@@ -2909,9 +3265,9 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="7" t="s">
@@ -2935,9 +3291,9 @@
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="7" t="s">
@@ -2961,9 +3317,9 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="28"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="7" t="s">
@@ -2972,24 +3328,24 @@
       <c r="F55" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="7" t="s">
@@ -3013,9 +3369,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="7" t="s">
@@ -3039,28 +3395,28 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3" t="e">
@@ -3068,38 +3424,100 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A39:A58"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C49:D51"/>
+    <mergeCell ref="F52:Q52"/>
+    <mergeCell ref="F53:Q53"/>
+    <mergeCell ref="F54:Q54"/>
+    <mergeCell ref="F55:Q55"/>
+    <mergeCell ref="F56:Q56"/>
+    <mergeCell ref="F57:Q57"/>
+    <mergeCell ref="C52:D58"/>
+    <mergeCell ref="F58:Q58"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="F43:Q43"/>
+    <mergeCell ref="F46:Q46"/>
+    <mergeCell ref="F47:Q47"/>
+    <mergeCell ref="F48:Q48"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="C45:D48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F50:Q50"/>
+    <mergeCell ref="F51:Q51"/>
+    <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="F17:Q17"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="F22:Q22"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="F36:Q36"/>
+    <mergeCell ref="F37:Q37"/>
+    <mergeCell ref="F38:Q38"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="F21:Q21"/>
+    <mergeCell ref="F33:Q33"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:D44"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="C33:D38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:D14"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:D32"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:D24"/>
+    <mergeCell ref="F26:Q26"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="F24:Q24"/>
+    <mergeCell ref="F13:Q13"/>
+    <mergeCell ref="F14:Q14"/>
+    <mergeCell ref="F25:Q25"/>
+    <mergeCell ref="F27:Q27"/>
+    <mergeCell ref="F28:Q28"/>
+    <mergeCell ref="F29:Q29"/>
+    <mergeCell ref="F30:Q30"/>
     <mergeCell ref="F6:Q6"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="C4:D8"/>
@@ -3116,68 +3534,6 @@
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="F9:Q9"/>
     <mergeCell ref="F32:Q32"/>
-    <mergeCell ref="F26:Q26"/>
-    <mergeCell ref="F31:Q31"/>
-    <mergeCell ref="F24:Q24"/>
-    <mergeCell ref="F13:Q13"/>
-    <mergeCell ref="F14:Q14"/>
-    <mergeCell ref="F25:Q25"/>
-    <mergeCell ref="F27:Q27"/>
-    <mergeCell ref="F28:Q28"/>
-    <mergeCell ref="F29:Q29"/>
-    <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="C33:D38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:D14"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:D32"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:D24"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:D44"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="F51:Q51"/>
-    <mergeCell ref="F15:Q15"/>
-    <mergeCell ref="F17:Q17"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="F23:Q23"/>
-    <mergeCell ref="F22:Q22"/>
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="F35:Q35"/>
-    <mergeCell ref="F36:Q36"/>
-    <mergeCell ref="F37:Q37"/>
-    <mergeCell ref="F38:Q38"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="F21:Q21"/>
-    <mergeCell ref="F33:Q33"/>
-    <mergeCell ref="F48:Q48"/>
-    <mergeCell ref="F49:Q49"/>
-    <mergeCell ref="C45:D48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F50:Q50"/>
-    <mergeCell ref="A39:A58"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C49:D51"/>
-    <mergeCell ref="F52:Q52"/>
-    <mergeCell ref="F53:Q53"/>
-    <mergeCell ref="F54:Q54"/>
-    <mergeCell ref="F55:Q55"/>
-    <mergeCell ref="F56:Q56"/>
-    <mergeCell ref="F57:Q57"/>
-    <mergeCell ref="C52:D58"/>
-    <mergeCell ref="F58:Q58"/>
-    <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="F46:Q46"/>
-    <mergeCell ref="F47:Q47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3185,57 +3541,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7699A98-EF12-42B5-AD82-8AE97F790406}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
+    <col min="16" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -3243,191 +3600,203 @@
       <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="43" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="Q7" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>110</v>
       </c>
@@ -3449,12 +3818,15 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="46" t="s">
+      <c r="P10" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="11" t="s">
@@ -3474,10 +3846,11 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="11" t="s">
@@ -3497,10 +3870,11 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="11" t="s">
@@ -3509,21 +3883,22 @@
       <c r="D13" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="11" t="s">
@@ -3543,10 +3918,11 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="11" t="s">
@@ -3566,37 +3942,49 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="3"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B28" xr:uid="{7298A2E2-C4DC-445E-BAC8-690BCC0D5A1A}">
+  <autoFilter ref="A1:B28">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="Q10:Q16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P7:P9"/>
     <mergeCell ref="P10:P16"/>
@@ -3613,13 +4001,6 @@
     <mergeCell ref="D8:O8"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3627,86 +4008,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D79E7D-7B71-4776-A081-9858417607BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:P13"/>
+      <selection activeCell="D7" sqref="D7:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="28.42578125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="28.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="55"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="60"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="6" t="s">
         <v>130</v>
       </c>
@@ -3714,246 +4095,263 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
+    <row r="5" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
+      <c r="Q5" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="62" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
+      <c r="Q6" s="48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="87" t="s">
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
+      <c r="Q8" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
+      <c r="D11" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="3"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:O3"/>
@@ -3977,86 +4375,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430577E4-42E2-4CE8-BBC7-603C94F724CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D6" sqref="D6:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" customWidth="1"/>
-    <col min="16" max="16" width="34.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="27.5546875" customWidth="1"/>
+    <col min="16" max="16" width="34.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="6" t="s">
         <v>130</v>
       </c>
@@ -4064,155 +4463,167 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="40" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="Q4" s="108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="109" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
       <c r="P9" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
@@ -4233,142 +4644,138 @@
       <c r="P10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="Q10" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
       <c r="P11" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="Q11" s="49"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
       <c r="P12" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="Q12" s="49"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="Q13" s="49"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
       <c r="P14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+      <c r="Q14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
       <c r="P15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A10:B15"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
+  <mergeCells count="19">
+    <mergeCell ref="Q10:Q15"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="A3:B3"/>
@@ -4380,6 +4787,13 @@
     <mergeCell ref="D6:O6"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="D8:O8"/>
+    <mergeCell ref="A10:B15"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4387,86 +4801,86 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52A573-4579-4033-9F65-BD990EC55F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:P18"/>
+      <selection activeCell="D16" sqref="D16:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" customWidth="1"/>
+    <col min="16" max="16" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="6" t="s">
         <v>130</v>
       </c>
@@ -4474,375 +4888,389 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="95" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99" t="s">
         <v>152</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+    <row r="5" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="96"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="100"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+    <row r="6" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="96"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="100"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="100"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="101"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="101" t="s">
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="20" t="s">
         <v>151</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="102" t="s">
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="Q10" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="102" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="Q11" s="49"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="102" t="s">
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="Q12" s="49"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="102" t="s">
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="Q13" s="49"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="102" t="s">
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="Q14" s="50"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="98" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="93" t="s">
         <v>169</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="99"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="94"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="99"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="94"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="100"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="95"/>
       <c r="Q18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="Q10:Q14"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="A4:B9"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
     <mergeCell ref="P15:P18"/>
     <mergeCell ref="A10:B14"/>
     <mergeCell ref="D10:O10"/>
@@ -4855,19 +5283,186 @@
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="D18:O18"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="P4:P8"/>
-    <mergeCell ref="A4:B9"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="118"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="118"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="118"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="118"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="118"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="118"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="122"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="126" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="123" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="124" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="128" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:D8"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Requirements/Product Backlog/Product Backlog.xlsx
+++ b/Requirements/Product Backlog/Product Backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NSKFDC-App.git\trunk\Requirements\Product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Deployment\trunk\Requirements\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{322A13D6-287D-4049-B168-23A3A5D957A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="3348" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3345" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="201">
   <si>
     <t>NSKFDC Product Backlog</t>
   </si>
@@ -626,16 +627,22 @@
     <t>Functionality to change the password for the existing training partner   - Pooja</t>
   </si>
   <si>
-    <t>Light box to be implemented on Admin Dashboard - When user clicks on upcoming assessments then details of the batches should be shown - Pooja</t>
-  </si>
-  <si>
     <t>Maintain History for Master Sheet Import - Pooja</t>
+  </si>
+  <si>
+    <t>Bug fixing</t>
+  </si>
+  <si>
+    <t>Light box to be implemented on Admin Dashboard - When user clicks on upcoming assessments then details of the batches should be shown - Priyanka</t>
+  </si>
+  <si>
+    <t>Populate the name of training partner on their template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1178,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1233,264 +1240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1520,9 +1269,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,12 +1278,305 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{490D3D41-5135-46FC-A8FD-E9131A6626B3}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1845,102 +1884,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
       <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1951,1472 +1990,1472 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+    <row r="34" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+    <row r="37" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="27" t="s">
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="37"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="38" t="s">
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="38" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="24"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="F58" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3" t="e">
@@ -3424,38 +3463,100 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="C4:D8"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A38"/>
+    <mergeCell ref="F10:Q10"/>
+    <mergeCell ref="F11:Q11"/>
+    <mergeCell ref="F12:Q12"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="F32:Q32"/>
+    <mergeCell ref="F26:Q26"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="F24:Q24"/>
+    <mergeCell ref="F13:Q13"/>
+    <mergeCell ref="F14:Q14"/>
+    <mergeCell ref="F25:Q25"/>
+    <mergeCell ref="F27:Q27"/>
+    <mergeCell ref="F28:Q28"/>
+    <mergeCell ref="F29:Q29"/>
+    <mergeCell ref="F30:Q30"/>
+    <mergeCell ref="C33:D38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:D14"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:D32"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:D24"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:D44"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F51:Q51"/>
+    <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="F17:Q17"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="F22:Q22"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="F36:Q36"/>
+    <mergeCell ref="F37:Q37"/>
+    <mergeCell ref="F38:Q38"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="F20:Q20"/>
+    <mergeCell ref="F21:Q21"/>
+    <mergeCell ref="F33:Q33"/>
+    <mergeCell ref="F48:Q48"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="C45:D48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F50:Q50"/>
     <mergeCell ref="A39:A58"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B58"/>
@@ -3472,68 +3573,6 @@
     <mergeCell ref="F43:Q43"/>
     <mergeCell ref="F46:Q46"/>
     <mergeCell ref="F47:Q47"/>
-    <mergeCell ref="F48:Q48"/>
-    <mergeCell ref="F49:Q49"/>
-    <mergeCell ref="C45:D48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F50:Q50"/>
-    <mergeCell ref="F51:Q51"/>
-    <mergeCell ref="F15:Q15"/>
-    <mergeCell ref="F17:Q17"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="F23:Q23"/>
-    <mergeCell ref="F22:Q22"/>
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="F35:Q35"/>
-    <mergeCell ref="F36:Q36"/>
-    <mergeCell ref="F37:Q37"/>
-    <mergeCell ref="F38:Q38"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="F20:Q20"/>
-    <mergeCell ref="F21:Q21"/>
-    <mergeCell ref="F33:Q33"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:D44"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="C33:D38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:D14"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:D32"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:D24"/>
-    <mergeCell ref="F26:Q26"/>
-    <mergeCell ref="F31:Q31"/>
-    <mergeCell ref="F24:Q24"/>
-    <mergeCell ref="F13:Q13"/>
-    <mergeCell ref="F14:Q14"/>
-    <mergeCell ref="F25:Q25"/>
-    <mergeCell ref="F27:Q27"/>
-    <mergeCell ref="F28:Q28"/>
-    <mergeCell ref="F29:Q29"/>
-    <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="C4:D8"/>
-    <mergeCell ref="A1:T2"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A38"/>
-    <mergeCell ref="F10:Q10"/>
-    <mergeCell ref="F11:Q11"/>
-    <mergeCell ref="F12:Q12"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="F32:Q32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3541,49 +3580,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
     <col min="16" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="6" t="s">
         <v>130</v>
       </c>
@@ -3592,389 +3631,399 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="42" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="105" t="s">
+      <c r="Q2" s="62" t="s">
         <v>170</v>
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="106"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="63"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="106"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="63"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="106"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="63"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="107"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="64"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="45" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="65" t="s">
         <v>171</v>
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+    <row r="8" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="48" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" s="68" t="s">
         <v>170</v>
       </c>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
       <c r="R16" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B28">
+  <autoFilter ref="A1:B28" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D16:O16"/>
     <mergeCell ref="Q2:Q6"/>
     <mergeCell ref="Q7:Q9"/>
     <mergeCell ref="Q10:Q16"/>
@@ -3991,16 +4040,6 @@
     <mergeCell ref="A10:B16"/>
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4008,86 +4047,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="28.44140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="58"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="81"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="63"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="86"/>
       <c r="P3" s="6" t="s">
         <v>130</v>
       </c>
@@ -4095,51 +4134,51 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="104"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
+    <row r="5" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="84"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="107"/>
       <c r="P5" s="12" t="s">
         <v>141</v>
       </c>
@@ -4147,215 +4186,210 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="65" t="s">
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="68" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="50"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="70"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="67" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="90" t="s">
         <v>142</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="68"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="91"/>
       <c r="Q9" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="68"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="91"/>
       <c r="Q10" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="68"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="91"/>
       <c r="Q11" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="68"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="91"/>
       <c r="Q12" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="69"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="92"/>
       <c r="Q13" s="3" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="P8:P13"/>
     <mergeCell ref="D12:O12"/>
     <mergeCell ref="D13:O13"/>
@@ -4368,6 +4402,11 @@
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4375,87 +4414,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="27.5546875" customWidth="1"/>
-    <col min="16" max="16" width="34.88671875" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="6" t="s">
         <v>130</v>
       </c>
@@ -4463,155 +4502,155 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="42" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="109" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="109" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="109" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="110" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
       <c r="P9" s="14" t="s">
         <v>143</v>
       </c>
@@ -4619,162 +4658,165 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" s="68" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q11" s="49"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="Q11" s="69"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
       <c r="P12" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q12" s="49"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="Q12" s="69"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
       <c r="P13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q13" s="49"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="Q13" s="69"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
       <c r="P14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q14" s="49"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="Q14" s="69"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
       <c r="P15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q15" s="50"/>
+      <c r="Q15" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
     <mergeCell ref="Q10:Q15"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="A1:Q2"/>
@@ -4791,9 +4833,6 @@
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4801,86 +4840,86 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" customWidth="1"/>
-    <col min="16" max="16" width="30.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="6" t="s">
         <v>130</v>
       </c>
@@ -4888,377 +4927,389 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99" t="s">
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="118" t="s">
         <v>152</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+    <row r="5" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="100"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+    <row r="6" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="100"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="119"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="100"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="119"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="101"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="120"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
       <c r="P9" s="20" t="s">
         <v>151</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
       <c r="P10" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" s="68" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
       <c r="P11" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="49"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="Q11" s="69"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
       <c r="P12" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="49"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="Q12" s="69"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
       <c r="P13" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" s="49"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="Q13" s="69"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="50"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="Q14" s="70"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="93" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="124" t="s">
         <v>169</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="94"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="125"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="94"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="125"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="95"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="126"/>
       <c r="Q18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:B18"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:O18"/>
     <mergeCell ref="Q10:Q14"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="D8:O8"/>
@@ -5271,18 +5322,6 @@
     <mergeCell ref="D4:O4"/>
     <mergeCell ref="D5:O5"/>
     <mergeCell ref="D6:O6"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:B18"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5290,84 +5329,84 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="183.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="118"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="118"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="26" t="s">
         <v>140</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="118"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -5376,28 +5415,28 @@
       <c r="D5" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="118"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="117" t="s">
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="25" t="s">
         <v>185</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="118"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="26" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -5406,58 +5445,68 @@
       <c r="D7" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="118"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="119" t="s">
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="122"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="126" t="s">
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="123" t="s">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="124" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="128" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="125" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="127" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="40" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:D8"/>
+  <autoFilter ref="C1:D8" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="2">
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
